--- a/02-22-26 to 02-28-26 Madison Schedule.xlsx
+++ b/02-22-26 to 02-28-26 Madison Schedule.xlsx
@@ -1298,12 +1298,14 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Michael N</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>Driver, 1/2
+Red Camry,
+Trainer</t>
         </is>
       </c>
       <c r="H19" t="inlineStr"/>
@@ -1365,14 +1367,13 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Michael N</t>
+          <t>Charletta</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Driver, 1/2
-Red Camry,
-Trainer</t>
+          <t>@ Store,
+work w/ Ashley</t>
         </is>
       </c>
       <c r="H20" t="inlineStr"/>
@@ -1430,13 +1431,12 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Charletta</t>
+          <t>Greg</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>@ Store,
-work w/ Ashley</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="H21" t="inlineStr"/>
@@ -1509,12 +1509,13 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Greg</t>
+          <t>Matthew</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+work w/ Michael</t>
         </is>
       </c>
       <c r="H22" t="inlineStr"/>
@@ -1590,13 +1591,12 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Matthew</t>
+          <t>Zakiyah</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>@ Store,
-work w/ Michael</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="H23" t="inlineStr"/>
@@ -1662,21 +1662,9 @@
       <c r="B24" t="inlineStr"/>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>10)</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>Zakiyah</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr">

--- a/02-22-26 to 02-28-26 Madison Schedule.xlsx
+++ b/02-22-26 to 02-28-26 Madison Schedule.xlsx
@@ -1053,7 +1053,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Ashley P</t>
+          <t>Angela</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -1373,7 +1373,7 @@
       <c r="G20" t="inlineStr">
         <is>
           <t>@ Store,
-work w/ Ashley</t>
+work w/ Angela</t>
         </is>
       </c>
       <c r="H20" t="inlineStr"/>
@@ -2377,7 +2377,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Angela</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="G36" t="inlineStr"/>
@@ -2433,7 +2433,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Spencer P</t>
         </is>
       </c>
       <c r="G37" t="inlineStr"/>
@@ -2488,10 +2488,15 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Spencer P</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr"/>
+          <t>Justin Lee</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Driver,
+Gray Van</t>
+        </is>
+      </c>
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr">
@@ -2528,22 +2533,9 @@
       <c r="B39" t="inlineStr"/>
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr"/>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>5)</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>Justin Lee</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>Driver,
-Gray Van</t>
-        </is>
-      </c>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr">

--- a/02-22-26 to 02-28-26 Madison Schedule.xlsx
+++ b/02-22-26 to 02-28-26 Madison Schedule.xlsx
@@ -4191,12 +4191,13 @@
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>Ashley P</t>
+          <t>Emily L</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>Driver,
+Red Camry</t>
         </is>
       </c>
       <c r="L84" t="inlineStr"/>
@@ -4230,15 +4231,10 @@
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>Emily L</t>
-        </is>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>Driver,
-Red Camry</t>
-        </is>
-      </c>
+          <t>Laci</t>
+        </is>
+      </c>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
       <c r="M85" t="inlineStr"/>
       <c r="N85" t="inlineStr"/>
@@ -4270,10 +4266,14 @@
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>Laci</t>
-        </is>
-      </c>
-      <c r="K86" t="inlineStr"/>
+          <t>Tina E</t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="L86" t="inlineStr"/>
       <c r="M86" t="inlineStr"/>
       <c r="N86" t="inlineStr"/>
@@ -4303,16 +4303,8 @@
           <t>5)</t>
         </is>
       </c>
-      <c r="J87" t="inlineStr">
-        <is>
-          <t>Tina E</t>
-        </is>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
       <c r="M87" t="inlineStr"/>
       <c r="N87" t="inlineStr"/>

--- a/02-22-26 to 02-28-26 Madison Schedule.xlsx
+++ b/02-22-26 to 02-28-26 Madison Schedule.xlsx
@@ -2002,21 +2002,9 @@
         </is>
       </c>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>14)</t>
-        </is>
-      </c>
-      <c r="N29" t="inlineStr">
-        <is>
-          <t>Sue</t>
-        </is>
-      </c>
-      <c r="O29" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="inlineStr"/>
+      <c r="O29" t="inlineStr"/>
       <c r="P29" t="inlineStr"/>
       <c r="Q29" t="inlineStr"/>
       <c r="R29" t="inlineStr"/>
@@ -2113,7 +2101,11 @@
       </c>
       <c r="L31" t="inlineStr"/>
       <c r="M31" t="inlineStr"/>
-      <c r="N31" t="inlineStr"/>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>6:30 AM START</t>
+        </is>
+      </c>
       <c r="O31" t="inlineStr"/>
       <c r="P31" t="inlineStr"/>
       <c r="Q31" t="inlineStr"/>
@@ -2166,7 +2158,7 @@
       <c r="M32" t="inlineStr"/>
       <c r="N32" t="inlineStr">
         <is>
-          <t>6:30 AM START</t>
+          <t>MODAS-SCAN</t>
         </is>
       </c>
       <c r="O32" t="inlineStr"/>
@@ -2221,7 +2213,7 @@
       <c r="M33" t="inlineStr"/>
       <c r="N33" t="inlineStr">
         <is>
-          <t>MODAS-SCAN</t>
+          <t>KELLEY #16, CEDARVILLE MOBIL</t>
         </is>
       </c>
       <c r="O33" t="inlineStr"/>
@@ -2272,7 +2264,7 @@
       <c r="M34" t="inlineStr"/>
       <c r="N34" t="inlineStr">
         <is>
-          <t>KELLEY #16, CEDARVILLE MOBIL</t>
+          <t>10 S STEPHENSON</t>
         </is>
       </c>
       <c r="O34" t="inlineStr"/>
@@ -2332,7 +2324,7 @@
       <c r="M35" t="inlineStr"/>
       <c r="N35" t="inlineStr">
         <is>
-          <t>10 S STEPHENSON</t>
+          <t>https://goo.gl/maps/T7gQ5LEiVaS2</t>
         </is>
       </c>
       <c r="O35" t="inlineStr"/>
@@ -2389,7 +2381,7 @@
       <c r="M36" t="inlineStr"/>
       <c r="N36" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/T7gQ5LEiVaS2</t>
+          <t>Please be careful to scan only product barcodes, and not the shelf scan tags</t>
         </is>
       </c>
       <c r="O36" t="inlineStr"/>
@@ -2445,7 +2437,7 @@
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr">
         <is>
-          <t>Please be careful to scan only product barcodes, and not the shelf scan tags</t>
+          <t>*IL Meet is 5:45 am at IL Office</t>
         </is>
       </c>
       <c r="O37" t="inlineStr"/>
@@ -2507,11 +2499,7 @@
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
       <c r="M38" t="inlineStr"/>
-      <c r="N38" t="inlineStr">
-        <is>
-          <t>*IL Meet is 5:45 am at IL Office</t>
-        </is>
-      </c>
+      <c r="N38" t="inlineStr"/>
       <c r="O38" t="inlineStr"/>
       <c r="P38" t="inlineStr"/>
       <c r="Q38" t="inlineStr"/>
@@ -2545,9 +2533,21 @@
       </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr"/>
-      <c r="N39" t="inlineStr"/>
-      <c r="O39" t="inlineStr"/>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>Mike G</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P39" t="inlineStr"/>
       <c r="Q39" t="inlineStr"/>
       <c r="R39" t="inlineStr">
@@ -2582,19 +2582,15 @@
       <c r="L40" t="inlineStr"/>
       <c r="M40" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>Mike G</t>
-        </is>
-      </c>
-      <c r="O40" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Amy</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr"/>
       <c r="P40" t="inlineStr"/>
       <c r="Q40" t="inlineStr"/>
       <c r="R40" t="inlineStr"/>
@@ -2607,7 +2603,7 @@
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>7:00 AM START</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="W40" t="inlineStr"/>
@@ -2633,15 +2629,20 @@
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>Amy</t>
-        </is>
-      </c>
-      <c r="O41" t="inlineStr"/>
+          <t>Emily L</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>Driver,
+Gray Van</t>
+        </is>
+      </c>
       <c r="P41" t="inlineStr"/>
       <c r="Q41" t="inlineStr">
         <is>
@@ -2692,20 +2693,15 @@
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>Emily L</t>
-        </is>
-      </c>
-      <c r="O42" t="inlineStr">
-        <is>
-          <t>Driver,
-Gray Van</t>
-        </is>
-      </c>
+          <t>Laci</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr"/>
       <c r="P42" t="inlineStr"/>
       <c r="Q42" t="inlineStr">
         <is>
@@ -2756,12 +2752,12 @@
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>Laci</t>
+          <t>Spencer P</t>
         </is>
       </c>
       <c r="O43" t="inlineStr"/>
@@ -2803,15 +2799,19 @@
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>Spencer P</t>
-        </is>
-      </c>
-      <c r="O44" t="inlineStr"/>
+          <t>Tina E</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P44" t="inlineStr"/>
       <c r="Q44" t="inlineStr"/>
       <c r="R44" t="inlineStr"/>
@@ -2848,21 +2848,9 @@
       </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr">
-        <is>
-          <t>6)</t>
-        </is>
-      </c>
-      <c r="N45" t="inlineStr">
-        <is>
-          <t>Tina E</t>
-        </is>
-      </c>
-      <c r="O45" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="inlineStr"/>
+      <c r="O45" t="inlineStr"/>
       <c r="P45" t="inlineStr"/>
       <c r="Q45" t="inlineStr"/>
       <c r="R45" t="inlineStr"/>

--- a/02-22-26 to 02-28-26 Madison Schedule.xlsx
+++ b/02-22-26 to 02-28-26 Madison Schedule.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y87"/>
+  <dimension ref="A1:Y86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1939,7 +1939,7 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>w/ Nate</t>
         </is>
       </c>
       <c r="L28" t="inlineStr"/>
@@ -1993,12 +1993,12 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Celina</t>
+          <t>Nate</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>w/ Bri</t>
         </is>
       </c>
       <c r="L29" t="inlineStr"/>
@@ -2040,7 +2040,7 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Cynthia</t>
+          <t>Celina</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -2091,7 +2091,7 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Greg</t>
+          <t>Cynthia</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -2146,7 +2146,7 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Greg</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
@@ -2201,7 +2201,7 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Matthew</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
@@ -2252,7 +2252,7 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>Matthew</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
@@ -3347,7 +3347,8 @@
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr">
         <is>
-          <t>*IL Meet is 3:45 am at IL Office</t>
+          <t>*IL leave time is 3:45 am from 
+IL Office</t>
         </is>
       </c>
       <c r="K58" t="inlineStr"/>
@@ -3453,8 +3454,8 @@
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>Driver, 1/2
-Optima</t>
+          <t>Driver,
+Silver Van</t>
         </is>
       </c>
       <c r="L61" t="inlineStr"/>
@@ -3481,22 +3482,9 @@
       <c r="F62" t="inlineStr"/>
       <c r="G62" t="inlineStr"/>
       <c r="H62" t="inlineStr"/>
-      <c r="I62" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
-      <c r="J62" t="inlineStr">
-        <is>
-          <t>Nate</t>
-        </is>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>Driver, 1/2
-Optima</t>
-        </is>
-      </c>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
       <c r="M62" t="inlineStr"/>
       <c r="N62" t="inlineStr"/>
@@ -3549,7 +3537,11 @@
       <c r="G64" t="inlineStr"/>
       <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>6:00 AM START</t>
+        </is>
+      </c>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
       <c r="M64" t="inlineStr"/>
@@ -3578,7 +3570,7 @@
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>SCAN-ITEM LEVEL</t>
         </is>
       </c>
       <c r="K65" t="inlineStr"/>
@@ -3609,7 +3601,7 @@
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr">
         <is>
-          <t>SCAN-ITEM LEVEL</t>
+          <t>TRAVEL MART DINO STOP 2 CITGO, LAKE DELTON</t>
         </is>
       </c>
       <c r="K66" t="inlineStr"/>
@@ -3640,7 +3632,7 @@
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr">
         <is>
-          <t>TRAVEL MART DINO STOP 2 CITGO, LAKE DELTON</t>
+          <t>1280 WISCONSIN DELLS PARKWAY S</t>
         </is>
       </c>
       <c r="K67" t="inlineStr"/>
@@ -3671,7 +3663,7 @@
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr">
         <is>
-          <t>1280 WISCONSIN DELLS PARKWAY S</t>
+          <t>https://goo.gl/maps/427cKEcwgvt</t>
         </is>
       </c>
       <c r="K68" t="inlineStr"/>
@@ -3700,11 +3692,7 @@
       <c r="G69" t="inlineStr"/>
       <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/427cKEcwgvt</t>
-        </is>
-      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
       <c r="M69" t="inlineStr"/>
@@ -3730,9 +3718,21 @@
       <c r="F70" t="inlineStr"/>
       <c r="G70" t="inlineStr"/>
       <c r="H70" t="inlineStr"/>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="L70" t="inlineStr"/>
       <c r="M70" t="inlineStr"/>
       <c r="N70" t="inlineStr"/>
@@ -3759,17 +3759,17 @@
       <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>Michelle</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>@ Store, Equip</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="L71" t="inlineStr"/>
@@ -3796,21 +3796,9 @@
       <c r="F72" t="inlineStr"/>
       <c r="G72" t="inlineStr"/>
       <c r="H72" t="inlineStr"/>
-      <c r="I72" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="J72" t="inlineStr">
-        <is>
-          <t>Lori</t>
-        </is>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
       <c r="M72" t="inlineStr"/>
       <c r="N72" t="inlineStr"/>
@@ -3863,7 +3851,11 @@
       <c r="G74" t="inlineStr"/>
       <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>6:30 AM START</t>
+        </is>
+      </c>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
       <c r="M74" t="inlineStr"/>
@@ -3892,7 +3884,7 @@
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr">
         <is>
-          <t>6:30 AM START</t>
+          <t>MODAS-SCAN</t>
         </is>
       </c>
       <c r="K75" t="inlineStr"/>
@@ -3923,7 +3915,7 @@
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr">
         <is>
-          <t>MODAS-SCAN</t>
+          <t>KELLEY #65, GENOA MOBIL</t>
         </is>
       </c>
       <c r="K76" t="inlineStr"/>
@@ -3954,7 +3946,7 @@
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr">
         <is>
-          <t>KELLEY #65, GENOA MOBIL</t>
+          <t>439 W MAIN ST</t>
         </is>
       </c>
       <c r="K77" t="inlineStr"/>
@@ -3985,7 +3977,7 @@
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr">
         <is>
-          <t>439 W MAIN ST</t>
+          <t>https://goo.gl/maps/WCT4tA6ALqq</t>
         </is>
       </c>
       <c r="K78" t="inlineStr"/>
@@ -4016,7 +4008,7 @@
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/WCT4tA6ALqq</t>
+          <t>Please be careful to scan only product barcodes, and not the shelf scan tags</t>
         </is>
       </c>
       <c r="K79" t="inlineStr"/>
@@ -4047,7 +4039,7 @@
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr">
         <is>
-          <t>Please be careful to scan only product barcodes, and not the shelf scan tags</t>
+          <t>*IL Meet is 5:45 am at IL Office</t>
         </is>
       </c>
       <c r="K80" t="inlineStr"/>
@@ -4076,11 +4068,7 @@
       <c r="G81" t="inlineStr"/>
       <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr">
-        <is>
-          <t>*IL Meet is 5:45 am at IL Office</t>
-        </is>
-      </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
       <c r="M81" t="inlineStr"/>
@@ -4106,9 +4094,21 @@
       <c r="F82" t="inlineStr"/>
       <c r="G82" t="inlineStr"/>
       <c r="H82" t="inlineStr"/>
-      <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>Mike G</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="L82" t="inlineStr"/>
       <c r="M82" t="inlineStr"/>
       <c r="N82" t="inlineStr"/>
@@ -4135,17 +4135,18 @@
       <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>Mike G</t>
+          <t>Emily L</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>Driver,
+Red Camry</t>
         </is>
       </c>
       <c r="L83" t="inlineStr"/>
@@ -4174,20 +4175,15 @@
       <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>Emily L</t>
-        </is>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>Driver,
-Red Camry</t>
-        </is>
-      </c>
+          <t>Laci</t>
+        </is>
+      </c>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
       <c r="M84" t="inlineStr"/>
       <c r="N84" t="inlineStr"/>
@@ -4214,15 +4210,19 @@
       <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>Laci</t>
-        </is>
-      </c>
-      <c r="K85" t="inlineStr"/>
+          <t>Tina E</t>
+        </is>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="L85" t="inlineStr"/>
       <c r="M85" t="inlineStr"/>
       <c r="N85" t="inlineStr"/>
@@ -4249,19 +4249,11 @@
       <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr">
         <is>
-          <t>4)</t>
-        </is>
-      </c>
-      <c r="J86" t="inlineStr">
-        <is>
-          <t>Tina E</t>
-        </is>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>5)</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
       <c r="M86" t="inlineStr"/>
       <c r="N86" t="inlineStr"/>
@@ -4277,37 +4269,6 @@
       <c r="X86" t="inlineStr"/>
       <c r="Y86" t="inlineStr"/>
     </row>
-    <row r="87">
-      <c r="A87" t="inlineStr"/>
-      <c r="B87" t="inlineStr"/>
-      <c r="C87" t="inlineStr"/>
-      <c r="D87" t="inlineStr"/>
-      <c r="E87" t="inlineStr"/>
-      <c r="F87" t="inlineStr"/>
-      <c r="G87" t="inlineStr"/>
-      <c r="H87" t="inlineStr"/>
-      <c r="I87" t="inlineStr">
-        <is>
-          <t>5)</t>
-        </is>
-      </c>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="inlineStr"/>
-      <c r="N87" t="inlineStr"/>
-      <c r="O87" t="inlineStr"/>
-      <c r="P87" t="inlineStr"/>
-      <c r="Q87" t="inlineStr"/>
-      <c r="R87" t="inlineStr"/>
-      <c r="S87" t="inlineStr"/>
-      <c r="T87" t="inlineStr"/>
-      <c r="U87" t="inlineStr"/>
-      <c r="V87" t="inlineStr"/>
-      <c r="W87" t="inlineStr"/>
-      <c r="X87" t="inlineStr"/>
-      <c r="Y87" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/02-22-26 to 02-28-26 Madison Schedule.xlsx
+++ b/02-22-26 to 02-28-26 Madison Schedule.xlsx
@@ -3769,7 +3769,7 @@
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store, Until 11:45</t>
         </is>
       </c>
       <c r="L71" t="inlineStr"/>

--- a/02-22-26 to 02-28-26 Madison Schedule.xlsx
+++ b/02-22-26 to 02-28-26 Madison Schedule.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y86"/>
+  <dimension ref="A1:Y85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2040,7 +2040,7 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Celina</t>
+          <t>Andrew</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -2091,7 +2091,7 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Cynthia</t>
+          <t>Celina</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -2146,7 +2146,7 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Greg</t>
+          <t>Cynthia</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
@@ -2201,7 +2201,7 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Greg</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
@@ -2252,7 +2252,7 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Matthew</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
@@ -2312,7 +2312,7 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Leyna</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
@@ -4238,37 +4238,6 @@
       <c r="X85" t="inlineStr"/>
       <c r="Y85" t="inlineStr"/>
     </row>
-    <row r="86">
-      <c r="A86" t="inlineStr"/>
-      <c r="B86" t="inlineStr"/>
-      <c r="C86" t="inlineStr"/>
-      <c r="D86" t="inlineStr"/>
-      <c r="E86" t="inlineStr"/>
-      <c r="F86" t="inlineStr"/>
-      <c r="G86" t="inlineStr"/>
-      <c r="H86" t="inlineStr"/>
-      <c r="I86" t="inlineStr">
-        <is>
-          <t>5)</t>
-        </is>
-      </c>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="inlineStr"/>
-      <c r="N86" t="inlineStr"/>
-      <c r="O86" t="inlineStr"/>
-      <c r="P86" t="inlineStr"/>
-      <c r="Q86" t="inlineStr"/>
-      <c r="R86" t="inlineStr"/>
-      <c r="S86" t="inlineStr"/>
-      <c r="T86" t="inlineStr"/>
-      <c r="U86" t="inlineStr"/>
-      <c r="V86" t="inlineStr"/>
-      <c r="W86" t="inlineStr"/>
-      <c r="X86" t="inlineStr"/>
-      <c r="Y86" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/02-22-26 to 02-28-26 Madison Schedule.xlsx
+++ b/02-22-26 to 02-28-26 Madison Schedule.xlsx
@@ -1244,14 +1244,12 @@
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>Ashley P</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>Driver, 1/2
-Silver Van,
-Supv Rx</t>
+          <t>Rx</t>
         </is>
       </c>
       <c r="P18" t="inlineStr"/>
@@ -1320,14 +1318,10 @@
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>Eva</t>
-        </is>
-      </c>
-      <c r="O19" t="inlineStr">
-        <is>
-          <t>Rx</t>
-        </is>
-      </c>
+          <t>Joseph</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr"/>
       <c r="P19" t="inlineStr"/>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1388,10 +1382,16 @@
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>Joseph</t>
-        </is>
-      </c>
-      <c r="O20" t="inlineStr"/>
+          <t>Justin Lee</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>Driver, 1/2
+Silver Van,
+Supv Rx</t>
+        </is>
+      </c>
       <c r="P20" t="inlineStr"/>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1455,13 +1455,12 @@
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>Driver, 1/2
-Silver Van</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="P21" t="inlineStr"/>
@@ -1534,12 +1533,13 @@
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Michael N</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>Driver, 1/2
+Silver Van</t>
         </is>
       </c>
       <c r="P22" t="inlineStr"/>
@@ -1615,10 +1615,15 @@
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>Michael N</t>
-        </is>
-      </c>
-      <c r="O23" t="inlineStr"/>
+          <t>Nate</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>Driver, 1/2
+Optima</t>
+        </is>
+      </c>
       <c r="P23" t="inlineStr"/>
       <c r="Q23" t="inlineStr">
         <is>
@@ -1681,7 +1686,7 @@
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>Nate</t>
+          <t>Qiana</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
@@ -1750,13 +1755,12 @@
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>Qiana</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>Driver, 1/2
-Optima</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="P25" t="inlineStr"/>
@@ -1816,7 +1820,7 @@
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>Celina</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
@@ -1883,7 +1887,7 @@
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>Celina</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
@@ -1943,21 +1947,9 @@
         </is>
       </c>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>13)</t>
-        </is>
-      </c>
-      <c r="N28" t="inlineStr">
-        <is>
-          <t>Jerry D</t>
-        </is>
-      </c>
-      <c r="O28" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="inlineStr"/>
+      <c r="O28" t="inlineStr"/>
       <c r="P28" t="inlineStr"/>
       <c r="Q28" t="inlineStr"/>
       <c r="R28" t="inlineStr"/>
@@ -2050,7 +2042,11 @@
       </c>
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr"/>
-      <c r="N30" t="inlineStr"/>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>6:30 AM START</t>
+        </is>
+      </c>
       <c r="O30" t="inlineStr"/>
       <c r="P30" t="inlineStr"/>
       <c r="Q30" t="inlineStr"/>
@@ -2103,7 +2099,7 @@
       <c r="M31" t="inlineStr"/>
       <c r="N31" t="inlineStr">
         <is>
-          <t>6:30 AM START</t>
+          <t>MODAS-SCAN</t>
         </is>
       </c>
       <c r="O31" t="inlineStr"/>
@@ -2158,7 +2154,7 @@
       <c r="M32" t="inlineStr"/>
       <c r="N32" t="inlineStr">
         <is>
-          <t>MODAS-SCAN</t>
+          <t>KELLEY #16, CEDARVILLE MOBIL</t>
         </is>
       </c>
       <c r="O32" t="inlineStr"/>
@@ -2213,7 +2209,7 @@
       <c r="M33" t="inlineStr"/>
       <c r="N33" t="inlineStr">
         <is>
-          <t>KELLEY #16, CEDARVILLE MOBIL</t>
+          <t>10 S STEPHENSON</t>
         </is>
       </c>
       <c r="O33" t="inlineStr"/>
@@ -2264,7 +2260,7 @@
       <c r="M34" t="inlineStr"/>
       <c r="N34" t="inlineStr">
         <is>
-          <t>10 S STEPHENSON</t>
+          <t>https://goo.gl/maps/T7gQ5LEiVaS2</t>
         </is>
       </c>
       <c r="O34" t="inlineStr"/>
@@ -2324,7 +2320,7 @@
       <c r="M35" t="inlineStr"/>
       <c r="N35" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/T7gQ5LEiVaS2</t>
+          <t>Please be careful to scan only product barcodes, and not the shelf scan tags</t>
         </is>
       </c>
       <c r="O35" t="inlineStr"/>
@@ -2381,7 +2377,7 @@
       <c r="M36" t="inlineStr"/>
       <c r="N36" t="inlineStr">
         <is>
-          <t>Please be careful to scan only product barcodes, and not the shelf scan tags</t>
+          <t>*IL Meet is 5:45 am at IL Office</t>
         </is>
       </c>
       <c r="O36" t="inlineStr"/>
@@ -2435,11 +2431,7 @@
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
       <c r="M37" t="inlineStr"/>
-      <c r="N37" t="inlineStr">
-        <is>
-          <t>*IL Meet is 5:45 am at IL Office</t>
-        </is>
-      </c>
+      <c r="N37" t="inlineStr"/>
       <c r="O37" t="inlineStr"/>
       <c r="P37" t="inlineStr"/>
       <c r="Q37" t="inlineStr"/>
@@ -2498,9 +2490,21 @@
       </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr"/>
-      <c r="N38" t="inlineStr"/>
-      <c r="O38" t="inlineStr"/>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>Mike G</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P38" t="inlineStr"/>
       <c r="Q38" t="inlineStr"/>
       <c r="R38" t="inlineStr">
@@ -2535,19 +2539,15 @@
       <c r="L39" t="inlineStr"/>
       <c r="M39" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>Mike G</t>
-        </is>
-      </c>
-      <c r="O39" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Amy</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr"/>
       <c r="P39" t="inlineStr"/>
       <c r="Q39" t="inlineStr"/>
       <c r="R39" t="inlineStr">
@@ -2582,15 +2582,20 @@
       <c r="L40" t="inlineStr"/>
       <c r="M40" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>Amy</t>
-        </is>
-      </c>
-      <c r="O40" t="inlineStr"/>
+          <t>Emily L</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>Driver,
+Red Camry</t>
+        </is>
+      </c>
       <c r="P40" t="inlineStr"/>
       <c r="Q40" t="inlineStr"/>
       <c r="R40" t="inlineStr"/>
@@ -2629,20 +2634,15 @@
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>Emily L</t>
-        </is>
-      </c>
-      <c r="O41" t="inlineStr">
-        <is>
-          <t>Driver,
-Gray Van</t>
-        </is>
-      </c>
+          <t>Laci</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr"/>
       <c r="P41" t="inlineStr"/>
       <c r="Q41" t="inlineStr">
         <is>
@@ -2693,12 +2693,12 @@
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>Laci</t>
+          <t>Spencer P</t>
         </is>
       </c>
       <c r="O42" t="inlineStr"/>
@@ -2752,15 +2752,19 @@
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>Spencer P</t>
-        </is>
-      </c>
-      <c r="O43" t="inlineStr"/>
+          <t>Tina E</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P43" t="inlineStr"/>
       <c r="Q43" t="inlineStr"/>
       <c r="R43" t="inlineStr"/>
@@ -2797,21 +2801,9 @@
       </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr">
-        <is>
-          <t>6)</t>
-        </is>
-      </c>
-      <c r="N44" t="inlineStr">
-        <is>
-          <t>Tina E</t>
-        </is>
-      </c>
-      <c r="O44" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="inlineStr"/>
+      <c r="O44" t="inlineStr"/>
       <c r="P44" t="inlineStr"/>
       <c r="Q44" t="inlineStr"/>
       <c r="R44" t="inlineStr"/>

--- a/02-22-26 to 02-28-26 Madison Schedule.xlsx
+++ b/02-22-26 to 02-28-26 Madison Schedule.xlsx
@@ -1119,7 +1119,12 @@
           <t>Angela</t>
         </is>
       </c>
-      <c r="W16" t="inlineStr"/>
+      <c r="W16" t="inlineStr">
+        <is>
+          <t>Driver, 1/2
+Silver Van</t>
+        </is>
+      </c>
       <c r="X16" t="inlineStr"/>
       <c r="Y16" t="inlineStr"/>
     </row>
@@ -1182,7 +1187,12 @@
           <t>Angela</t>
         </is>
       </c>
-      <c r="S17" t="inlineStr"/>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>Driver, 1/2
+Silver Van</t>
+        </is>
+      </c>
       <c r="T17" t="inlineStr"/>
       <c r="U17" t="inlineStr">
         <is>
@@ -1191,15 +1201,10 @@
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>Ashley P</t>
-        </is>
-      </c>
-      <c r="W17" t="inlineStr">
-        <is>
-          <t>Driver, 1/2
-Silver Van</t>
-        </is>
-      </c>
+          <t>Emily L</t>
+        </is>
+      </c>
+      <c r="W17" t="inlineStr"/>
       <c r="X17" t="inlineStr"/>
       <c r="Y17" t="inlineStr"/>
     </row>
@@ -1260,15 +1265,10 @@
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>Ashley P</t>
-        </is>
-      </c>
-      <c r="S18" t="inlineStr">
-        <is>
-          <t>Driver, 1/2
-Silver Van</t>
-        </is>
-      </c>
+          <t>Emily L</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr"/>
       <c r="T18" t="inlineStr"/>
       <c r="U18" t="inlineStr">
         <is>
@@ -1277,7 +1277,7 @@
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>Emily L</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="W18" t="inlineStr"/>
@@ -1330,7 +1330,7 @@
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>Emily L</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="S19" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="W19" t="inlineStr"/>
@@ -1400,7 +1400,7 @@
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="S20" t="inlineStr"/>
@@ -1412,10 +1412,16 @@
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>Joseph</t>
-        </is>
-      </c>
-      <c r="W20" t="inlineStr"/>
+          <t>Justin Lee</t>
+        </is>
+      </c>
+      <c r="W20" t="inlineStr">
+        <is>
+          <t>@ Store, 1/2
+Optima
+Until 8:30</t>
+        </is>
+      </c>
       <c r="X20" t="inlineStr"/>
       <c r="Y20" t="inlineStr"/>
     </row>
@@ -1471,10 +1477,14 @@
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>Joseph</t>
-        </is>
-      </c>
-      <c r="S21" t="inlineStr"/>
+          <t>Lori</t>
+        </is>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T21" t="inlineStr"/>
       <c r="U21" t="inlineStr">
         <is>
@@ -1483,7 +1493,7 @@
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
+          <t>Nate</t>
         </is>
       </c>
       <c r="W21" t="inlineStr">
@@ -1550,12 +1560,13 @@
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Michael N</t>
         </is>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>Driver, 1/2
+Silver Van</t>
         </is>
       </c>
       <c r="T22" t="inlineStr"/>
@@ -1566,14 +1577,14 @@
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>Nate</t>
+          <t>Qiana</t>
         </is>
       </c>
       <c r="W22" t="inlineStr">
         <is>
-          <t>@ Store, 1/2
-Optima
-Until 8:30</t>
+          <t>Driver, 1/2
+Silver Van,
+Trainer</t>
         </is>
       </c>
       <c r="X22" t="inlineStr"/>
@@ -1632,13 +1643,13 @@
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>Michael N</t>
+          <t>Nate</t>
         </is>
       </c>
       <c r="S23" t="inlineStr">
         <is>
           <t>Driver, 1/2
-Silver Van</t>
+Optima</t>
         </is>
       </c>
       <c r="T23" t="inlineStr"/>
@@ -1649,14 +1660,12 @@
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>Qiana</t>
+          <t>DJ</t>
         </is>
       </c>
       <c r="W23" t="inlineStr">
         <is>
-          <t>Driver, 1/2
-Silver Van,
-Trainer</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="X23" t="inlineStr"/>
@@ -1703,7 +1712,7 @@
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>Nate</t>
+          <t>Qiana</t>
         </is>
       </c>
       <c r="S24" t="inlineStr">
@@ -1720,12 +1729,13 @@
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>DJ</t>
+          <t>Matthew</t>
         </is>
       </c>
       <c r="W24" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+work w/ Qiana</t>
         </is>
       </c>
       <c r="X24" t="inlineStr"/>
@@ -1771,32 +1781,18 @@
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>Qiana</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>Driver, 1/2
-Optima</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="T25" t="inlineStr"/>
-      <c r="U25" t="inlineStr">
-        <is>
-          <t>11)</t>
-        </is>
-      </c>
-      <c r="V25" t="inlineStr">
-        <is>
-          <t>Matthew</t>
-        </is>
-      </c>
-      <c r="W25" t="inlineStr">
-        <is>
-          <t>@ Store,
-work w/ Qiana</t>
-        </is>
-      </c>
+      <c r="U25" t="inlineStr"/>
+      <c r="V25" t="inlineStr"/>
+      <c r="W25" t="inlineStr"/>
       <c r="X25" t="inlineStr"/>
       <c r="Y25" t="inlineStr"/>
     </row>
@@ -1836,7 +1832,7 @@
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>Savannah</t>
         </is>
       </c>
       <c r="S26" t="inlineStr">
@@ -1896,24 +1892,16 @@
         </is>
       </c>
       <c r="P27" t="inlineStr"/>
-      <c r="Q27" t="inlineStr">
-        <is>
-          <t>12)</t>
-        </is>
-      </c>
-      <c r="R27" t="inlineStr">
-        <is>
-          <t>Savannah</t>
-        </is>
-      </c>
-      <c r="S27" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="Q27" t="inlineStr"/>
+      <c r="R27" t="inlineStr"/>
+      <c r="S27" t="inlineStr"/>
       <c r="T27" t="inlineStr"/>
       <c r="U27" t="inlineStr"/>
-      <c r="V27" t="inlineStr"/>
+      <c r="V27" t="inlineStr">
+        <is>
+          <t>9:00 AM START</t>
+        </is>
+      </c>
       <c r="W27" t="inlineStr"/>
       <c r="X27" t="inlineStr"/>
       <c r="Y27" t="inlineStr"/>
@@ -1958,7 +1946,7 @@
       <c r="U28" t="inlineStr"/>
       <c r="V28" t="inlineStr">
         <is>
-          <t>9:00 AM START</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="W28" t="inlineStr"/>
@@ -1999,13 +1987,17 @@
       <c r="O29" t="inlineStr"/>
       <c r="P29" t="inlineStr"/>
       <c r="Q29" t="inlineStr"/>
-      <c r="R29" t="inlineStr"/>
+      <c r="R29" t="inlineStr">
+        <is>
+          <t>6:00 AM START</t>
+        </is>
+      </c>
       <c r="S29" t="inlineStr"/>
       <c r="T29" t="inlineStr"/>
       <c r="U29" t="inlineStr"/>
       <c r="V29" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>NEIL'S LIQUOR, MIDDLETON</t>
         </is>
       </c>
       <c r="W29" t="inlineStr"/>
@@ -2052,7 +2044,7 @@
       <c r="Q30" t="inlineStr"/>
       <c r="R30" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="S30" t="inlineStr"/>
@@ -2060,7 +2052,7 @@
       <c r="U30" t="inlineStr"/>
       <c r="V30" t="inlineStr">
         <is>
-          <t>NEIL'S LIQUOR, MIDDLETON</t>
+          <t>2415 ALLEN BLVD</t>
         </is>
       </c>
       <c r="W30" t="inlineStr"/>
@@ -2107,7 +2099,7 @@
       <c r="Q31" t="inlineStr"/>
       <c r="R31" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>ROTE OIL #1 PADDOCK LAKE- BRASS BALL</t>
         </is>
       </c>
       <c r="S31" t="inlineStr"/>
@@ -2115,7 +2107,7 @@
       <c r="U31" t="inlineStr"/>
       <c r="V31" t="inlineStr">
         <is>
-          <t>2415 ALLEN BLVD</t>
+          <t>https://goo.gl/maps/DGBtCKndB2s</t>
         </is>
       </c>
       <c r="W31" t="inlineStr"/>
@@ -2162,7 +2154,7 @@
       <c r="Q32" t="inlineStr"/>
       <c r="R32" t="inlineStr">
         <is>
-          <t>ROTE OIL #1 PADDOCK LAKE- BRASS BALL</t>
+          <t>25406 75TH ST</t>
         </is>
       </c>
       <c r="S32" t="inlineStr"/>
@@ -2170,7 +2162,7 @@
       <c r="U32" t="inlineStr"/>
       <c r="V32" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/DGBtCKndB2s</t>
+          <t>Nate and Justin start at Verona first, leave in time to start here at 9:00</t>
         </is>
       </c>
       <c r="W32" t="inlineStr"/>
@@ -2217,17 +2209,13 @@
       <c r="Q33" t="inlineStr"/>
       <c r="R33" t="inlineStr">
         <is>
-          <t>25406 75TH ST</t>
+          <t>https://goo.gl/maps/LTa4ckcczx5qc8269</t>
         </is>
       </c>
       <c r="S33" t="inlineStr"/>
       <c r="T33" t="inlineStr"/>
       <c r="U33" t="inlineStr"/>
-      <c r="V33" t="inlineStr">
-        <is>
-          <t>Nate and Justin start at Verona first, leave in time to start here at 9:00</t>
-        </is>
-      </c>
+      <c r="V33" t="inlineStr"/>
       <c r="W33" t="inlineStr"/>
       <c r="X33" t="inlineStr"/>
       <c r="Y33" t="inlineStr"/>
@@ -2268,14 +2256,28 @@
       <c r="Q34" t="inlineStr"/>
       <c r="R34" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/LTa4ckcczx5qc8269</t>
+          <t>TO FOLLOW</t>
         </is>
       </c>
       <c r="S34" t="inlineStr"/>
       <c r="T34" t="inlineStr"/>
-      <c r="U34" t="inlineStr"/>
-      <c r="V34" t="inlineStr"/>
-      <c r="W34" t="inlineStr"/>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="V34" t="inlineStr">
+        <is>
+          <t>Nate</t>
+        </is>
+      </c>
+      <c r="W34" t="inlineStr">
+        <is>
+          <t>@ Store, 1/2
+Optima,
+Equip</t>
+        </is>
+      </c>
       <c r="X34" t="inlineStr"/>
       <c r="Y34" t="inlineStr"/>
     </row>
@@ -2328,26 +2330,25 @@
       <c r="Q35" t="inlineStr"/>
       <c r="R35" t="inlineStr">
         <is>
-          <t>TO FOLLOW</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="S35" t="inlineStr"/>
       <c r="T35" t="inlineStr"/>
       <c r="U35" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>Nate</t>
+          <t>Justin Lee</t>
         </is>
       </c>
       <c r="W35" t="inlineStr">
         <is>
           <t>@ Store, 1/2
-Optima,
-Equip</t>
+Optima</t>
         </is>
       </c>
       <c r="X35" t="inlineStr"/>
@@ -2385,25 +2386,24 @@
       <c r="Q36" t="inlineStr"/>
       <c r="R36" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>ROTE OIL #2 PADDOCK LAKE- 75TH ST</t>
         </is>
       </c>
       <c r="S36" t="inlineStr"/>
       <c r="T36" t="inlineStr"/>
       <c r="U36" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="W36" t="inlineStr">
         <is>
-          <t>@ Store, 1/2
-Optima</t>
+          <t>@ Store after Portage</t>
         </is>
       </c>
       <c r="X36" t="inlineStr"/>
@@ -2437,26 +2437,14 @@
       <c r="Q37" t="inlineStr"/>
       <c r="R37" t="inlineStr">
         <is>
-          <t>ROTE OIL #2 PADDOCK LAKE- 75TH ST</t>
+          <t>25555 75TH ST</t>
         </is>
       </c>
       <c r="S37" t="inlineStr"/>
       <c r="T37" t="inlineStr"/>
-      <c r="U37" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
-      <c r="V37" t="inlineStr">
-        <is>
-          <t>Sarah</t>
-        </is>
-      </c>
-      <c r="W37" t="inlineStr">
-        <is>
-          <t>@ Store after Portage</t>
-        </is>
-      </c>
+      <c r="U37" t="inlineStr"/>
+      <c r="V37" t="inlineStr"/>
+      <c r="W37" t="inlineStr"/>
       <c r="X37" t="inlineStr"/>
       <c r="Y37" t="inlineStr"/>
     </row>
@@ -2509,7 +2497,7 @@
       <c r="Q38" t="inlineStr"/>
       <c r="R38" t="inlineStr">
         <is>
-          <t>25555 75TH ST</t>
+          <t>https://goo.gl/maps/5UyWWXXbzXMaVnv99</t>
         </is>
       </c>
       <c r="S38" t="inlineStr"/>
@@ -2550,15 +2538,19 @@
       <c r="O39" t="inlineStr"/>
       <c r="P39" t="inlineStr"/>
       <c r="Q39" t="inlineStr"/>
-      <c r="R39" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/5UyWWXXbzXMaVnv99</t>
-        </is>
-      </c>
+      <c r="R39" t="inlineStr"/>
       <c r="S39" t="inlineStr"/>
       <c r="T39" t="inlineStr"/>
-      <c r="U39" t="inlineStr"/>
-      <c r="V39" t="inlineStr"/>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="V39" t="inlineStr">
+        <is>
+          <t>6:00 AM START</t>
+        </is>
+      </c>
       <c r="W39" t="inlineStr"/>
       <c r="X39" t="inlineStr"/>
       <c r="Y39" t="inlineStr"/>
@@ -2597,18 +2589,26 @@
         </is>
       </c>
       <c r="P40" t="inlineStr"/>
-      <c r="Q40" t="inlineStr"/>
-      <c r="R40" t="inlineStr"/>
-      <c r="S40" t="inlineStr"/>
+      <c r="Q40" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="R40" t="inlineStr">
+        <is>
+          <t>Bri</t>
+        </is>
+      </c>
+      <c r="S40" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="T40" t="inlineStr"/>
-      <c r="U40" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
+      <c r="U40" t="inlineStr"/>
       <c r="V40" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="W40" t="inlineStr"/>
@@ -2646,24 +2646,24 @@
       <c r="P41" t="inlineStr"/>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>Bri</t>
+          <t>Kim</t>
         </is>
       </c>
       <c r="S41" t="inlineStr">
         <is>
-          <t>@ Store, Equip</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="T41" t="inlineStr"/>
       <c r="U41" t="inlineStr"/>
       <c r="V41" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>*SALE INVENTORY</t>
         </is>
       </c>
       <c r="W41" t="inlineStr"/>
@@ -2703,26 +2703,14 @@
       </c>
       <c r="O42" t="inlineStr"/>
       <c r="P42" t="inlineStr"/>
-      <c r="Q42" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="R42" t="inlineStr">
-        <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="S42" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="Q42" t="inlineStr"/>
+      <c r="R42" t="inlineStr"/>
+      <c r="S42" t="inlineStr"/>
       <c r="T42" t="inlineStr"/>
       <c r="U42" t="inlineStr"/>
       <c r="V42" t="inlineStr">
         <is>
-          <t>*SALE INVENTORY</t>
+          <t>BUYER - SHERRI FOURNIER CELL (608) 712-3655</t>
         </is>
       </c>
       <c r="W42" t="inlineStr"/>
@@ -2773,7 +2761,7 @@
       <c r="U43" t="inlineStr"/>
       <c r="V43" t="inlineStr">
         <is>
-          <t>BUYER - SHERRI FOURNIER CELL (608) 712-3655</t>
+          <t>78 KWIK STOP, PORTAGE</t>
         </is>
       </c>
       <c r="W43" t="inlineStr"/>
@@ -2812,7 +2800,7 @@
       <c r="U44" t="inlineStr"/>
       <c r="V44" t="inlineStr">
         <is>
-          <t>78 KWIK STOP, PORTAGE</t>
+          <t>(OLD PORTAGE MOBIL MART)</t>
         </is>
       </c>
       <c r="W44" t="inlineStr"/>
@@ -2851,7 +2839,7 @@
       <c r="U45" t="inlineStr"/>
       <c r="V45" t="inlineStr">
         <is>
-          <t>(OLD PORTAGE MOBIL MART)</t>
+          <t>N5755 HWY 78</t>
         </is>
       </c>
       <c r="W45" t="inlineStr"/>
@@ -2890,7 +2878,7 @@
       <c r="U46" t="inlineStr"/>
       <c r="V46" t="inlineStr">
         <is>
-          <t>N5755 HWY 78</t>
+          <t>https://goo.gl/maps/QDMcz7oR81G2</t>
         </is>
       </c>
       <c r="W46" t="inlineStr"/>
@@ -2927,11 +2915,7 @@
       <c r="S47" t="inlineStr"/>
       <c r="T47" t="inlineStr"/>
       <c r="U47" t="inlineStr"/>
-      <c r="V47" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/QDMcz7oR81G2</t>
-        </is>
-      </c>
+      <c r="V47" t="inlineStr"/>
       <c r="W47" t="inlineStr"/>
       <c r="X47" t="inlineStr"/>
       <c r="Y47" t="inlineStr"/>
@@ -2965,9 +2949,21 @@
       <c r="R48" t="inlineStr"/>
       <c r="S48" t="inlineStr"/>
       <c r="T48" t="inlineStr"/>
-      <c r="U48" t="inlineStr"/>
-      <c r="V48" t="inlineStr"/>
-      <c r="W48" t="inlineStr"/>
+      <c r="U48" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="V48" t="inlineStr">
+        <is>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="W48" t="inlineStr">
+        <is>
+          <t>@ Store, Equip, help at Neil's after</t>
+        </is>
+      </c>
       <c r="X48" t="inlineStr"/>
       <c r="Y48" t="inlineStr"/>
     </row>
@@ -2998,17 +2994,17 @@
       <c r="T49" t="inlineStr"/>
       <c r="U49" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="W49" t="inlineStr">
         <is>
-          <t>@ Store, Equip, help at Neil's after</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="X49" t="inlineStr"/>
@@ -3051,21 +3047,9 @@
       <c r="R50" t="inlineStr"/>
       <c r="S50" t="inlineStr"/>
       <c r="T50" t="inlineStr"/>
-      <c r="U50" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="V50" t="inlineStr">
-        <is>
-          <t>Lori</t>
-        </is>
-      </c>
-      <c r="W50" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="U50" t="inlineStr"/>
+      <c r="V50" t="inlineStr"/>
+      <c r="W50" t="inlineStr"/>
       <c r="X50" t="inlineStr"/>
       <c r="Y50" t="inlineStr"/>
     </row>

--- a/02-22-26 to 02-28-26 Madison Schedule.xlsx
+++ b/02-22-26 to 02-28-26 Madison Schedule.xlsx
@@ -2535,7 +2535,11 @@
           <t>Amy</t>
         </is>
       </c>
-      <c r="O39" t="inlineStr"/>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P39" t="inlineStr"/>
       <c r="Q39" t="inlineStr"/>
       <c r="R39" t="inlineStr"/>
